--- a/lib/cases/测试用例.xlsx
+++ b/lib/cases/测试用例.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
-    <sheet name="登录页面" sheetId="1" r:id="rId1"/>
+    <sheet name="practice test automation" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" calcCompleted="0" calcOnSave="0"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="51">
   <si>
     <t>分组信息</t>
   </si>
@@ -50,13 +50,13 @@
     <t>Test_Login</t>
   </si>
   <si>
-    <t>用例1</t>
+    <t>Positive LogIn test</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>打开浏览器</t>
+    <t>Open browser</t>
   </si>
   <si>
     <t>open_browser</t>
@@ -65,7 +65,7 @@
     <t>gc</t>
   </si>
   <si>
-    <t>进入登录页面</t>
+    <t>Get url</t>
   </si>
   <si>
     <t>geturl</t>
@@ -74,13 +74,16 @@
     <t>https://practicetestautomation.com/practice/</t>
   </si>
   <si>
+    <t>Open page</t>
+  </si>
+  <si>
     <t>click</t>
   </si>
   <si>
     <t>link_testTest Login Page</t>
   </si>
   <si>
-    <t>输入用户名</t>
+    <t>Type username</t>
   </si>
   <si>
     <r>
@@ -109,7 +112,7 @@
     <t>student</t>
   </si>
   <si>
-    <t>输入密码</t>
+    <t>Type password</t>
   </si>
   <si>
     <t>password</t>
@@ -118,13 +121,13 @@
     <t>Password123</t>
   </si>
   <si>
-    <t>点击登录</t>
+    <t>Push Submit button</t>
   </si>
   <si>
     <t>submit</t>
   </si>
   <si>
-    <t>验证URL</t>
+    <t>Verify new page URL</t>
   </si>
   <si>
     <t>assert_url</t>
@@ -133,7 +136,7 @@
     <t>practicetestautomation.com/logged-in-successfully/</t>
   </si>
   <si>
-    <t>验证页面文本</t>
+    <t>Verify new page contains expected text</t>
   </si>
   <si>
     <t>assert_text</t>
@@ -145,7 +148,7 @@
     <t>Logged In Successfully</t>
   </si>
   <si>
-    <t>验证退出按键</t>
+    <t>Verify button Log out</t>
   </si>
   <si>
     <t>assert_button</t>
@@ -157,7 +160,40 @@
     <t>Log out</t>
   </si>
   <si>
-    <t>关闭浏览器</t>
+    <t>Negative username test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">incorrectUser </t>
+  </si>
+  <si>
+    <t>Verify error message is displayed</t>
+  </si>
+  <si>
+    <t>assert_element</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>Verify error message text</t>
+  </si>
+  <si>
+    <t>Your username is invalid!</t>
+  </si>
+  <si>
+    <t>Negative password test</t>
+  </si>
+  <si>
+    <t>Type error password</t>
+  </si>
+  <si>
+    <t>Password1231</t>
+  </si>
+  <si>
+    <t>Your password is invalid!</t>
+  </si>
+  <si>
+    <t>Close Borwser</t>
   </si>
   <si>
     <t>quit</t>
@@ -814,7 +850,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -838,9 +874,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1163,20 +1196,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11.2857142857143" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.4285714285714" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.4285714285714" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.1428571428571" style="2" customWidth="1"/>
-    <col min="5" max="5" width="42.8571428571429" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.4285714285714" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.4285714285714" style="2" customWidth="1"/>
+    <col min="3" max="3" width="41.8571428571429" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.4285714285714" style="2" customWidth="1"/>
+    <col min="5" max="5" width="115" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.1428571428571" style="2" customWidth="1"/>
     <col min="7" max="7" width="9" style="2" customWidth="1"/>
     <col min="8" max="9" width="8.85714285714286" style="3"/>
   </cols>
@@ -1270,13 +1303,13 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="4"/>
@@ -1287,16 +1320,16 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -1306,16 +1339,16 @@
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -1325,13 +1358,13 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -1342,13 +1375,13 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -1358,16 +1391,16 @@
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -1377,16 +1410,16 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -1394,13 +1427,11 @@
     </row>
     <row r="13" customHeight="1" spans="1:9">
       <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -1410,9 +1441,16 @@
     <row r="14" customHeight="1" spans="1:9">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -1420,9 +1458,15 @@
     <row r="15" customHeight="1" spans="1:9">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -1431,9 +1475,18 @@
     <row r="16" customHeight="1" spans="1:9">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -1441,10 +1494,18 @@
     <row r="17" customHeight="1" spans="1:9">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -1452,53 +1513,80 @@
     <row r="18" customHeight="1" spans="1:9">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" ht="14.25" spans="1:9">
+    <row r="19" customHeight="1" spans="1:9">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" ht="14.25" spans="1:9">
+    <row r="20" customHeight="1" spans="1:9">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" ht="14.25" spans="1:9">
+    <row r="21" customHeight="1" spans="1:9">
       <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="B21" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="8"/>
+      <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" ht="14.25" spans="1:9">
+    <row r="22" customHeight="1" spans="1:9">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="8"/>
+      <c r="C22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -1507,23 +1595,123 @@
     <row r="23" customHeight="1" spans="1:9">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="C23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" ht="14.25" spans="1:9">
+    <row r="24" customHeight="1" spans="1:9">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:9">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" customHeight="1" spans="1:9">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" customHeight="1" spans="1:9">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" customHeight="1" spans="1:9">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" customHeight="1" spans="1:9">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1536,6 +1724,8 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" display="https://practicetestautomation.com/practice/" tooltip="https://practicetestautomation.com/practice/"/>
+    <hyperlink ref="E14" r:id="rId1" display="https://practicetestautomation.com/practice/" tooltip="https://practicetestautomation.com/practice/"/>
+    <hyperlink ref="E22" r:id="rId1" display="https://practicetestautomation.com/practice/" tooltip="https://practicetestautomation.com/practice/"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/lib/cases/测试用例.xlsx
+++ b/lib/cases/测试用例.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="57">
   <si>
     <t>分组信息</t>
   </si>
@@ -193,10 +193,28 @@
     <t>Your password is invalid!</t>
   </si>
   <si>
-    <t>Close Borwser</t>
-  </si>
-  <si>
-    <t>quit</t>
+    <t>Test Exceptions</t>
+  </si>
+  <si>
+    <t>NoSuchElementException</t>
+  </si>
+  <si>
+    <t>link_testTest Exceptions</t>
+  </si>
+  <si>
+    <t>Click Add button</t>
+  </si>
+  <si>
+    <t>add_btn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">input displayed Row </t>
+  </si>
+  <si>
+    <t>//div[@id='row2']/input</t>
+  </si>
+  <si>
+    <t>Verify Row 2 input field is displayed</t>
   </si>
 </sst>
 </file>
@@ -1196,10 +1214,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -1699,26 +1717,107 @@
       <c r="I28" s="4"/>
     </row>
     <row r="29" customHeight="1" spans="1:9">
-      <c r="A29" s="4"/>
+      <c r="A29" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="B29" s="4"/>
-      <c r="C29" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>50</v>
-      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
     </row>
+    <row r="30" customHeight="1" spans="1:9">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" customHeight="1" spans="1:9">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" customHeight="1" spans="1:9">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" customHeight="1" spans="1:9">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" customHeight="1" spans="1:9">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E1:G1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H3:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H31 H3:H28 H29:H30 H32:H1048576">
       <formula1>"FAIL,PASS"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1726,6 +1825,7 @@
     <hyperlink ref="E5" r:id="rId1" display="https://practicetestautomation.com/practice/" tooltip="https://practicetestautomation.com/practice/"/>
     <hyperlink ref="E14" r:id="rId1" display="https://practicetestautomation.com/practice/" tooltip="https://practicetestautomation.com/practice/"/>
     <hyperlink ref="E22" r:id="rId1" display="https://practicetestautomation.com/practice/" tooltip="https://practicetestautomation.com/practice/"/>
+    <hyperlink ref="E31" r:id="rId1" display="https://practicetestautomation.com/practice/" tooltip="https://practicetestautomation.com/practice/"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/lib/cases/测试用例.xlsx
+++ b/lib/cases/测试用例.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="79">
   <si>
     <t>分组信息</t>
   </si>
@@ -62,7 +62,7 @@
     <t>open_browser</t>
   </si>
   <si>
-    <t>gc</t>
+    <t>edge</t>
   </si>
   <si>
     <t>Get url</t>
@@ -208,13 +208,79 @@
     <t>add_btn</t>
   </si>
   <si>
-    <t xml:space="preserve">input displayed Row </t>
+    <t>Verify Row 2 input field is displayed</t>
+  </si>
+  <si>
+    <t>input</t>
   </si>
   <si>
     <t>//div[@id='row2']/input</t>
   </si>
   <si>
-    <t>Verify Row 2 input field is displayed</t>
+    <t>ElementNotInteractableException</t>
+  </si>
+  <si>
+    <t>refresh</t>
+  </si>
+  <si>
+    <t>Wait for the second row to load</t>
+  </si>
+  <si>
+    <t>wait_for_element</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Push Save button</t>
+  </si>
+  <si>
+    <t>$Save</t>
+  </si>
+  <si>
+    <t>Verify text saved</t>
+  </si>
+  <si>
+    <t>confirmation</t>
+  </si>
+  <si>
+    <t>Row 2 was saved</t>
+  </si>
+  <si>
+    <t>InvalidElementStateException</t>
+  </si>
+  <si>
+    <t>Clear input field</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>//div[@id='row1']/input</t>
+  </si>
+  <si>
+    <t>StaleElementReferenceException</t>
+  </si>
+  <si>
+    <t>Find the instructions text element</t>
+  </si>
+  <si>
+    <t>save_element</t>
+  </si>
+  <si>
+    <t>instructions</t>
+  </si>
+  <si>
+    <t>Use the instructions text element</t>
+  </si>
+  <si>
+    <t>use_element</t>
+  </si>
+  <si>
+    <t>TimeoutException</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -1214,10 +1280,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -1225,8 +1291,8 @@
     <col min="1" max="1" width="11.2857142857143" style="2" customWidth="1"/>
     <col min="2" max="2" width="25.4285714285714" style="2" customWidth="1"/>
     <col min="3" max="3" width="41.8571428571429" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.4285714285714" style="2" customWidth="1"/>
-    <col min="5" max="5" width="115" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.0095238095238" style="2" customWidth="1"/>
+    <col min="5" max="5" width="63.6190476190476" style="2" customWidth="1"/>
     <col min="6" max="6" width="24.1428571428571" style="2" customWidth="1"/>
     <col min="7" max="7" width="9" style="2" customWidth="1"/>
     <col min="8" max="9" width="8.85714285714286" style="3"/>
@@ -1800,24 +1866,310 @@
         <v>54</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
+    </row>
+    <row r="35" ht="14.25" spans="1:9">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" customHeight="1" spans="1:9">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" customHeight="1" spans="1:9">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" ht="14.25" spans="1:9">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" customHeight="1" spans="1:9">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" customHeight="1" spans="1:9">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" ht="14.25" spans="1:9">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+    </row>
+    <row r="42" customHeight="1" spans="1:9">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+    </row>
+    <row r="43" customHeight="1" spans="1:9">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" ht="14.25" spans="1:9">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" customHeight="1" spans="1:9">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+    </row>
+    <row r="46" customHeight="1" spans="1:9">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+    </row>
+    <row r="47" customHeight="1" spans="1:9">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+    </row>
+    <row r="48" customHeight="1" spans="1:9">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+    </row>
+    <row r="49" customHeight="1" spans="2:9">
+      <c r="B49" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+    </row>
+    <row r="50" customHeight="1" spans="2:9">
+      <c r="B50" s="4"/>
+      <c r="C50" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+    </row>
+    <row r="51" customHeight="1" spans="2:9">
+      <c r="B51" s="4"/>
+      <c r="C51" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+    </row>
+    <row r="52" customHeight="1" spans="2:9">
+      <c r="B52" s="4"/>
+      <c r="C52" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E1:G1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H31 H3:H28 H29:H30 H32:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H3:H1048576">
       <formula1>"FAIL,PASS"</formula1>
     </dataValidation>
   </dataValidations>
